--- a/data/zenodo/trade/_CHE_trd_diesel.xlsx
+++ b/data/zenodo/trade/_CHE_trd_diesel.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10409"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10514"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ruiziv/switchdrive/ACCURACY/RESTORE/data/zenodo_ivan/trade/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ruiziv/switchdrive/ACCURACY/RESTORE/data/zenodo/trade/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03385CC4-58D7-2C42-B269-463B0922177D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6A1C339-3D26-DD46-BF53-782ECDFC242E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="7940" yWindow="500" windowWidth="21600" windowHeight="19900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$5:$L$304</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$5:$L$305</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="834" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="838" uniqueCount="51">
   <si>
     <t>Name:</t>
   </si>
@@ -183,6 +183,9 @@
   </si>
   <si>
     <t>Table 39</t>
+  </si>
+  <si>
+    <t>cost_variable_om</t>
   </si>
 </sst>
 </file>
@@ -256,7 +259,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -266,7 +269,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -286,9 +288,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -326,9 +328,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -361,26 +363,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -413,26 +398,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -606,11 +574,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L106"/>
+  <dimension ref="A1:L107"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A69" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G106" sqref="G106"/>
+      <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -828,13 +796,13 @@
         <v>43</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>21</v>
+        <v>50</v>
       </c>
       <c r="D14" t="s">
         <v>20</v>
       </c>
-      <c r="H14" t="s">
-        <v>29</v>
+      <c r="G14">
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
@@ -845,19 +813,13 @@
         <v>43</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="D15" t="s">
-        <v>34</v>
-      </c>
-      <c r="F15" t="s">
-        <v>37</v>
-      </c>
-      <c r="G15">
-        <v>1</v>
-      </c>
-      <c r="J15" t="s">
-        <v>30</v>
+        <v>20</v>
+      </c>
+      <c r="H15" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.2">
@@ -867,32 +829,20 @@
       <c r="B16" t="s">
         <v>43</v>
       </c>
-      <c r="C16" t="s">
-        <v>26</v>
+      <c r="C16" s="3" t="s">
+        <v>33</v>
       </c>
       <c r="D16" t="s">
-        <v>17</v>
-      </c>
-      <c r="E16">
-        <v>1990</v>
+        <v>34</v>
+      </c>
+      <c r="F16" t="s">
+        <v>37</v>
       </c>
       <c r="G16">
-        <v>340.8</v>
-      </c>
-      <c r="H16" t="s">
-        <v>29</v>
-      </c>
-      <c r="I16" t="s">
-        <v>38</v>
+        <v>1</v>
       </c>
       <c r="J16" t="s">
-        <v>39</v>
-      </c>
-      <c r="K16" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="L16" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.2">
@@ -909,10 +859,10 @@
         <v>17</v>
       </c>
       <c r="E17">
-        <v>1991</v>
+        <v>1990</v>
       </c>
       <c r="G17">
-        <v>0</v>
+        <v>340.8</v>
       </c>
       <c r="H17" t="s">
         <v>29</v>
@@ -944,10 +894,10 @@
         <v>17</v>
       </c>
       <c r="E18">
-        <v>1992</v>
+        <v>1991</v>
       </c>
       <c r="G18">
-        <v>511.2</v>
+        <v>0</v>
       </c>
       <c r="H18" t="s">
         <v>29</v>
@@ -979,7 +929,7 @@
         <v>17</v>
       </c>
       <c r="E19">
-        <v>1993</v>
+        <v>1992</v>
       </c>
       <c r="G19">
         <v>511.2</v>
@@ -1014,10 +964,10 @@
         <v>17</v>
       </c>
       <c r="E20">
-        <v>1994</v>
+        <v>1993</v>
       </c>
       <c r="G20">
-        <v>0</v>
+        <v>511.2</v>
       </c>
       <c r="H20" t="s">
         <v>29</v>
@@ -1049,7 +999,7 @@
         <v>17</v>
       </c>
       <c r="E21">
-        <v>1995</v>
+        <v>1994</v>
       </c>
       <c r="G21">
         <v>0</v>
@@ -1084,7 +1034,7 @@
         <v>17</v>
       </c>
       <c r="E22">
-        <v>1996</v>
+        <v>1995</v>
       </c>
       <c r="G22">
         <v>0</v>
@@ -1119,7 +1069,7 @@
         <v>17</v>
       </c>
       <c r="E23">
-        <v>1997</v>
+        <v>1996</v>
       </c>
       <c r="G23">
         <v>0</v>
@@ -1154,7 +1104,7 @@
         <v>17</v>
       </c>
       <c r="E24">
-        <v>1998</v>
+        <v>1997</v>
       </c>
       <c r="G24">
         <v>0</v>
@@ -1189,7 +1139,7 @@
         <v>17</v>
       </c>
       <c r="E25">
-        <v>1999</v>
+        <v>1998</v>
       </c>
       <c r="G25">
         <v>0</v>
@@ -1224,7 +1174,7 @@
         <v>17</v>
       </c>
       <c r="E26">
-        <v>2000</v>
+        <v>1999</v>
       </c>
       <c r="G26">
         <v>0</v>
@@ -1259,7 +1209,7 @@
         <v>17</v>
       </c>
       <c r="E27">
-        <v>2001</v>
+        <v>2000</v>
       </c>
       <c r="G27">
         <v>0</v>
@@ -1294,7 +1244,7 @@
         <v>17</v>
       </c>
       <c r="E28">
-        <v>2002</v>
+        <v>2001</v>
       </c>
       <c r="G28">
         <v>0</v>
@@ -1329,10 +1279,10 @@
         <v>17</v>
       </c>
       <c r="E29">
-        <v>2003</v>
+        <v>2002</v>
       </c>
       <c r="G29">
-        <v>383.4</v>
+        <v>0</v>
       </c>
       <c r="H29" t="s">
         <v>29</v>
@@ -1364,10 +1314,10 @@
         <v>17</v>
       </c>
       <c r="E30">
-        <v>2004</v>
+        <v>2003</v>
       </c>
       <c r="G30">
-        <v>170.4</v>
+        <v>383.4</v>
       </c>
       <c r="H30" t="s">
         <v>29</v>
@@ -1399,10 +1349,10 @@
         <v>17</v>
       </c>
       <c r="E31">
-        <v>2005</v>
+        <v>2004</v>
       </c>
       <c r="G31">
-        <v>85.2</v>
+        <v>170.4</v>
       </c>
       <c r="H31" t="s">
         <v>29</v>
@@ -1434,10 +1384,10 @@
         <v>17</v>
       </c>
       <c r="E32">
-        <v>2006</v>
+        <v>2005</v>
       </c>
       <c r="G32">
-        <v>127.8</v>
+        <v>85.2</v>
       </c>
       <c r="H32" t="s">
         <v>29</v>
@@ -1469,10 +1419,10 @@
         <v>17</v>
       </c>
       <c r="E33">
-        <v>2007</v>
+        <v>2006</v>
       </c>
       <c r="G33">
-        <v>724.2</v>
+        <v>127.8</v>
       </c>
       <c r="H33" t="s">
         <v>29</v>
@@ -1504,10 +1454,10 @@
         <v>17</v>
       </c>
       <c r="E34">
-        <v>2008</v>
+        <v>2007</v>
       </c>
       <c r="G34">
-        <v>298.2</v>
+        <v>724.2</v>
       </c>
       <c r="H34" t="s">
         <v>29</v>
@@ -1539,10 +1489,10 @@
         <v>17</v>
       </c>
       <c r="E35">
-        <v>2009</v>
+        <v>2008</v>
       </c>
       <c r="G35">
-        <v>255.6</v>
+        <v>298.2</v>
       </c>
       <c r="H35" t="s">
         <v>29</v>
@@ -1574,10 +1524,10 @@
         <v>17</v>
       </c>
       <c r="E36">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="G36">
-        <v>894.6</v>
+        <v>255.6</v>
       </c>
       <c r="H36" t="s">
         <v>29</v>
@@ -1609,10 +1559,10 @@
         <v>17</v>
       </c>
       <c r="E37">
-        <v>2011</v>
+        <v>2010</v>
       </c>
       <c r="G37">
-        <v>1618.8</v>
+        <v>894.6</v>
       </c>
       <c r="H37" t="s">
         <v>29</v>
@@ -1644,10 +1594,10 @@
         <v>17</v>
       </c>
       <c r="E38">
-        <v>2012</v>
+        <v>2011</v>
       </c>
       <c r="G38">
-        <v>2385.6</v>
+        <v>1618.8</v>
       </c>
       <c r="H38" t="s">
         <v>29</v>
@@ -1679,10 +1629,10 @@
         <v>17</v>
       </c>
       <c r="E39">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="G39">
-        <v>2811.6</v>
+        <v>2385.6</v>
       </c>
       <c r="H39" t="s">
         <v>29</v>
@@ -1714,10 +1664,10 @@
         <v>17</v>
       </c>
       <c r="E40">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="G40">
-        <v>2726.4</v>
+        <v>2811.6</v>
       </c>
       <c r="H40" t="s">
         <v>29</v>
@@ -1749,10 +1699,10 @@
         <v>17</v>
       </c>
       <c r="E41">
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="G41">
-        <v>1022.4</v>
+        <v>2726.4</v>
       </c>
       <c r="H41" t="s">
         <v>29</v>
@@ -1784,10 +1734,10 @@
         <v>17</v>
       </c>
       <c r="E42">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="G42">
-        <v>1278</v>
+        <v>1022.4</v>
       </c>
       <c r="H42" t="s">
         <v>29</v>
@@ -1819,10 +1769,10 @@
         <v>17</v>
       </c>
       <c r="E43">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="G43">
-        <v>1192.8</v>
+        <v>1278</v>
       </c>
       <c r="H43" t="s">
         <v>29</v>
@@ -1854,10 +1804,10 @@
         <v>17</v>
       </c>
       <c r="E44">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="G44">
-        <v>1243.71</v>
+        <v>1192.8</v>
       </c>
       <c r="H44" t="s">
         <v>29</v>
@@ -1889,9 +1839,26 @@
         <v>17</v>
       </c>
       <c r="E45">
-        <v>2019</v>
-      </c>
-      <c r="K45" s="2"/>
+        <v>2018</v>
+      </c>
+      <c r="G45">
+        <v>1243.71</v>
+      </c>
+      <c r="H45" t="s">
+        <v>29</v>
+      </c>
+      <c r="I45" t="s">
+        <v>38</v>
+      </c>
+      <c r="J45" t="s">
+        <v>39</v>
+      </c>
+      <c r="K45" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="L45" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
@@ -1901,32 +1868,15 @@
         <v>43</v>
       </c>
       <c r="C46" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D46" t="s">
         <v>17</v>
       </c>
       <c r="E46">
-        <v>1990</v>
-      </c>
-      <c r="G46">
-        <v>233064.6</v>
-      </c>
-      <c r="H46" t="s">
-        <v>29</v>
-      </c>
-      <c r="I46" t="s">
-        <v>38</v>
-      </c>
-      <c r="J46" t="s">
-        <v>39</v>
-      </c>
-      <c r="K46" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="L46" t="s">
-        <v>41</v>
-      </c>
+        <v>2019</v>
+      </c>
+      <c r="K46" s="2"/>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
@@ -1942,10 +1892,10 @@
         <v>17</v>
       </c>
       <c r="E47">
-        <v>1991</v>
+        <v>1990</v>
       </c>
       <c r="G47">
-        <v>197962.2</v>
+        <v>233064.6</v>
       </c>
       <c r="H47" t="s">
         <v>29</v>
@@ -1977,10 +1927,10 @@
         <v>17</v>
       </c>
       <c r="E48">
-        <v>1992</v>
+        <v>1991</v>
       </c>
       <c r="G48">
-        <v>204820.8</v>
+        <v>197962.2</v>
       </c>
       <c r="H48" t="s">
         <v>29</v>
@@ -2012,10 +1962,10 @@
         <v>17</v>
       </c>
       <c r="E49">
-        <v>1993</v>
+        <v>1992</v>
       </c>
       <c r="G49">
-        <v>157151.4</v>
+        <v>204820.8</v>
       </c>
       <c r="H49" t="s">
         <v>29</v>
@@ -2047,10 +1997,10 @@
         <v>17</v>
       </c>
       <c r="E50">
-        <v>1994</v>
+        <v>1993</v>
       </c>
       <c r="G50">
-        <v>177769.8</v>
+        <v>157151.4</v>
       </c>
       <c r="H50" t="s">
         <v>29</v>
@@ -2082,10 +2032,10 @@
         <v>17</v>
       </c>
       <c r="E51">
-        <v>1995</v>
+        <v>1994</v>
       </c>
       <c r="G51">
-        <v>150846.6</v>
+        <v>177769.8</v>
       </c>
       <c r="H51" t="s">
         <v>29</v>
@@ -2117,10 +2067,10 @@
         <v>17</v>
       </c>
       <c r="E52">
-        <v>1996</v>
+        <v>1995</v>
       </c>
       <c r="G52">
-        <v>152678.39999999999</v>
+        <v>150846.6</v>
       </c>
       <c r="H52" t="s">
         <v>29</v>
@@ -2152,10 +2102,10 @@
         <v>17</v>
       </c>
       <c r="E53">
-        <v>1997</v>
+        <v>1996</v>
       </c>
       <c r="G53">
-        <v>184159.8</v>
+        <v>152678.39999999999</v>
       </c>
       <c r="H53" t="s">
         <v>29</v>
@@ -2187,10 +2137,10 @@
         <v>17</v>
       </c>
       <c r="E54">
-        <v>1998</v>
+        <v>1997</v>
       </c>
       <c r="G54">
-        <v>191018.4</v>
+        <v>184159.8</v>
       </c>
       <c r="H54" t="s">
         <v>29</v>
@@ -2222,10 +2172,10 @@
         <v>17</v>
       </c>
       <c r="E55">
-        <v>1999</v>
+        <v>1998</v>
       </c>
       <c r="G55">
-        <v>150548.4</v>
+        <v>191018.4</v>
       </c>
       <c r="H55" t="s">
         <v>29</v>
@@ -2257,10 +2207,10 @@
         <v>17</v>
       </c>
       <c r="E56">
-        <v>2000</v>
+        <v>1999</v>
       </c>
       <c r="G56">
-        <v>148120.20000000001</v>
+        <v>150548.4</v>
       </c>
       <c r="H56" t="s">
         <v>29</v>
@@ -2292,10 +2242,10 @@
         <v>17</v>
       </c>
       <c r="E57">
-        <v>2001</v>
+        <v>2000</v>
       </c>
       <c r="G57">
-        <v>195150.6</v>
+        <v>148120.20000000001</v>
       </c>
       <c r="H57" t="s">
         <v>29</v>
@@ -2327,10 +2277,10 @@
         <v>17</v>
       </c>
       <c r="E58">
-        <v>2002</v>
+        <v>2001</v>
       </c>
       <c r="G58">
-        <v>180709.2</v>
+        <v>195150.6</v>
       </c>
       <c r="H58" t="s">
         <v>29</v>
@@ -2362,10 +2312,10 @@
         <v>17</v>
       </c>
       <c r="E59">
-        <v>2003</v>
+        <v>2002</v>
       </c>
       <c r="G59">
-        <v>171592.8</v>
+        <v>180709.2</v>
       </c>
       <c r="H59" t="s">
         <v>29</v>
@@ -2397,10 +2347,10 @@
         <v>17</v>
       </c>
       <c r="E60">
-        <v>2004</v>
+        <v>2003</v>
       </c>
       <c r="G60">
-        <v>163200.6</v>
+        <v>171592.8</v>
       </c>
       <c r="H60" t="s">
         <v>29</v>
@@ -2432,10 +2382,10 @@
         <v>17</v>
       </c>
       <c r="E61">
-        <v>2005</v>
+        <v>2004</v>
       </c>
       <c r="G61">
-        <v>185182.2</v>
+        <v>163200.6</v>
       </c>
       <c r="H61" t="s">
         <v>29</v>
@@ -2467,10 +2417,10 @@
         <v>17</v>
       </c>
       <c r="E62">
-        <v>2006</v>
+        <v>2005</v>
       </c>
       <c r="G62">
-        <v>177216</v>
+        <v>185182.2</v>
       </c>
       <c r="H62" t="s">
         <v>29</v>
@@ -2502,10 +2452,10 @@
         <v>17</v>
       </c>
       <c r="E63">
-        <v>2007</v>
+        <v>2006</v>
       </c>
       <c r="G63">
-        <v>134445.6</v>
+        <v>177216</v>
       </c>
       <c r="H63" t="s">
         <v>29</v>
@@ -2537,10 +2487,10 @@
         <v>17</v>
       </c>
       <c r="E64">
-        <v>2008</v>
+        <v>2007</v>
       </c>
       <c r="G64">
-        <v>169335</v>
+        <v>134445.6</v>
       </c>
       <c r="H64" t="s">
         <v>29</v>
@@ -2572,10 +2522,10 @@
         <v>17</v>
       </c>
       <c r="E65">
-        <v>2009</v>
+        <v>2008</v>
       </c>
       <c r="G65">
-        <v>194043</v>
+        <v>169335</v>
       </c>
       <c r="H65" t="s">
         <v>29</v>
@@ -2607,10 +2557,10 @@
         <v>17</v>
       </c>
       <c r="E66">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="G66">
-        <v>149526</v>
+        <v>194043</v>
       </c>
       <c r="H66" t="s">
         <v>29</v>
@@ -2642,10 +2592,10 @@
         <v>17</v>
       </c>
       <c r="E67">
-        <v>2011</v>
+        <v>2010</v>
       </c>
       <c r="G67">
-        <v>140622.6</v>
+        <v>149526</v>
       </c>
       <c r="H67" t="s">
         <v>29</v>
@@ -2677,10 +2627,10 @@
         <v>17</v>
       </c>
       <c r="E68">
-        <v>2012</v>
+        <v>2011</v>
       </c>
       <c r="G68">
-        <v>180666.6</v>
+        <v>140622.6</v>
       </c>
       <c r="H68" t="s">
         <v>29</v>
@@ -2712,10 +2662,10 @@
         <v>17</v>
       </c>
       <c r="E69">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="G69">
-        <v>169122</v>
+        <v>180666.6</v>
       </c>
       <c r="H69" t="s">
         <v>29</v>
@@ -2747,10 +2697,10 @@
         <v>17</v>
       </c>
       <c r="E70">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="G70">
-        <v>125073.60000000001</v>
+        <v>169122</v>
       </c>
       <c r="H70" t="s">
         <v>29</v>
@@ -2782,10 +2732,10 @@
         <v>17</v>
       </c>
       <c r="E71">
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="G71">
-        <v>173211.6</v>
+        <v>125073.60000000001</v>
       </c>
       <c r="H71" t="s">
         <v>29</v>
@@ -2817,10 +2767,10 @@
         <v>17</v>
       </c>
       <c r="E72">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="G72">
-        <v>162007.79999999999</v>
+        <v>173211.6</v>
       </c>
       <c r="H72" t="s">
         <v>29</v>
@@ -2852,10 +2802,10 @@
         <v>17</v>
       </c>
       <c r="E73">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="G73">
-        <v>162476.4</v>
+        <v>162007.79999999999</v>
       </c>
       <c r="H73" t="s">
         <v>29</v>
@@ -2887,10 +2837,10 @@
         <v>17</v>
       </c>
       <c r="E74">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="G74">
-        <v>123604.41</v>
+        <v>162476.4</v>
       </c>
       <c r="H74" t="s">
         <v>29</v>
@@ -2922,9 +2872,26 @@
         <v>17</v>
       </c>
       <c r="E75">
-        <v>2019</v>
-      </c>
-      <c r="K75" s="2"/>
+        <v>2018</v>
+      </c>
+      <c r="G75">
+        <v>123604.41</v>
+      </c>
+      <c r="H75" t="s">
+        <v>29</v>
+      </c>
+      <c r="I75" t="s">
+        <v>38</v>
+      </c>
+      <c r="J75" t="s">
+        <v>39</v>
+      </c>
+      <c r="K75" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="L75" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="76" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
@@ -2934,29 +2901,15 @@
         <v>43</v>
       </c>
       <c r="C76" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D76" t="s">
         <v>17</v>
       </c>
       <c r="E76">
-        <v>1990</v>
-      </c>
-      <c r="G76">
-        <v>0.88</v>
-      </c>
-      <c r="H76" t="s">
-        <v>46</v>
-      </c>
-      <c r="J76" t="s">
-        <v>47</v>
-      </c>
-      <c r="K76" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="L76" t="s">
-        <v>49</v>
-      </c>
+        <v>2019</v>
+      </c>
+      <c r="K76" s="2"/>
     </row>
     <row r="77" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
@@ -2972,7 +2925,7 @@
         <v>17</v>
       </c>
       <c r="E77">
-        <v>1991</v>
+        <v>1990</v>
       </c>
       <c r="G77">
         <v>0.88</v>
@@ -3004,10 +2957,10 @@
         <v>17</v>
       </c>
       <c r="E78">
-        <v>1992</v>
+        <v>1991</v>
       </c>
       <c r="G78">
-        <v>0.83</v>
+        <v>0.88</v>
       </c>
       <c r="H78" t="s">
         <v>46</v>
@@ -3036,10 +2989,10 @@
         <v>17</v>
       </c>
       <c r="E79">
-        <v>1993</v>
-      </c>
-      <c r="G79" s="5">
-        <v>0.98</v>
+        <v>1992</v>
+      </c>
+      <c r="G79">
+        <v>0.83</v>
       </c>
       <c r="H79" t="s">
         <v>46</v>
@@ -3068,7 +3021,7 @@
         <v>17</v>
       </c>
       <c r="E80">
-        <v>1994</v>
+        <v>1993</v>
       </c>
       <c r="G80">
         <v>0.98</v>
@@ -3100,10 +3053,10 @@
         <v>17</v>
       </c>
       <c r="E81">
-        <v>1995</v>
+        <v>1994</v>
       </c>
       <c r="G81">
-        <v>0.95</v>
+        <v>0.98</v>
       </c>
       <c r="H81" t="s">
         <v>46</v>
@@ -3132,10 +3085,10 @@
         <v>17</v>
       </c>
       <c r="E82">
-        <v>1996</v>
+        <v>1995</v>
       </c>
       <c r="G82">
-        <v>1.04</v>
+        <v>0.95</v>
       </c>
       <c r="H82" t="s">
         <v>46</v>
@@ -3164,10 +3117,10 @@
         <v>17</v>
       </c>
       <c r="E83">
-        <v>1997</v>
+        <v>1996</v>
       </c>
       <c r="G83">
-        <v>1.07</v>
+        <v>1.04</v>
       </c>
       <c r="H83" t="s">
         <v>46</v>
@@ -3196,10 +3149,10 @@
         <v>17</v>
       </c>
       <c r="E84">
-        <v>1998</v>
+        <v>1997</v>
       </c>
       <c r="G84">
-        <v>1.01</v>
+        <v>1.07</v>
       </c>
       <c r="H84" t="s">
         <v>46</v>
@@ -3228,10 +3181,10 @@
         <v>17</v>
       </c>
       <c r="E85">
-        <v>1999</v>
+        <v>1998</v>
       </c>
       <c r="G85">
-        <v>1.07</v>
+        <v>1.01</v>
       </c>
       <c r="H85" t="s">
         <v>46</v>
@@ -3260,10 +3213,10 @@
         <v>17</v>
       </c>
       <c r="E86">
-        <v>2000</v>
+        <v>1999</v>
       </c>
       <c r="G86">
-        <v>1.25</v>
+        <v>1.07</v>
       </c>
       <c r="H86" t="s">
         <v>46</v>
@@ -3292,10 +3245,10 @@
         <v>17</v>
       </c>
       <c r="E87">
-        <v>2001</v>
+        <v>2000</v>
       </c>
       <c r="G87">
-        <v>1.2</v>
+        <v>1.25</v>
       </c>
       <c r="H87" t="s">
         <v>46</v>
@@ -3324,10 +3277,10 @@
         <v>17</v>
       </c>
       <c r="E88">
-        <v>2002</v>
+        <v>2001</v>
       </c>
       <c r="G88">
-        <v>1.1499999999999999</v>
+        <v>1.2</v>
       </c>
       <c r="H88" t="s">
         <v>46</v>
@@ -3356,10 +3309,10 @@
         <v>17</v>
       </c>
       <c r="E89">
-        <v>2003</v>
+        <v>2002</v>
       </c>
       <c r="G89">
-        <v>1.19</v>
+        <v>1.1499999999999999</v>
       </c>
       <c r="H89" t="s">
         <v>46</v>
@@ -3388,10 +3341,10 @@
         <v>17</v>
       </c>
       <c r="E90">
-        <v>2004</v>
+        <v>2003</v>
       </c>
       <c r="G90">
-        <v>1.28</v>
+        <v>1.19</v>
       </c>
       <c r="H90" t="s">
         <v>46</v>
@@ -3420,10 +3373,10 @@
         <v>17</v>
       </c>
       <c r="E91">
-        <v>2005</v>
+        <v>2004</v>
       </c>
       <c r="G91">
-        <v>1.45</v>
+        <v>1.28</v>
       </c>
       <c r="H91" t="s">
         <v>46</v>
@@ -3452,10 +3405,10 @@
         <v>17</v>
       </c>
       <c r="E92">
-        <v>2006</v>
+        <v>2005</v>
       </c>
       <c r="G92">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="H92" t="s">
         <v>46</v>
@@ -3484,10 +3437,10 @@
         <v>17</v>
       </c>
       <c r="E93">
-        <v>2007</v>
+        <v>2006</v>
       </c>
       <c r="G93">
-        <v>1.48</v>
+        <v>1.5</v>
       </c>
       <c r="H93" t="s">
         <v>46</v>
@@ -3516,10 +3469,10 @@
         <v>17</v>
       </c>
       <c r="E94">
-        <v>2008</v>
+        <v>2007</v>
       </c>
       <c r="G94">
-        <v>1.66</v>
+        <v>1.48</v>
       </c>
       <c r="H94" t="s">
         <v>46</v>
@@ -3548,10 +3501,10 @@
         <v>17</v>
       </c>
       <c r="E95">
-        <v>2009</v>
+        <v>2008</v>
       </c>
       <c r="G95">
-        <v>1.33</v>
+        <v>1.66</v>
       </c>
       <c r="H95" t="s">
         <v>46</v>
@@ -3580,10 +3533,10 @@
         <v>17</v>
       </c>
       <c r="E96">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="G96">
-        <v>1.42</v>
+        <v>1.33</v>
       </c>
       <c r="H96" t="s">
         <v>46</v>
@@ -3612,10 +3565,10 @@
         <v>17</v>
       </c>
       <c r="E97">
-        <v>2011</v>
+        <v>2010</v>
       </c>
       <c r="G97">
-        <v>1.54</v>
+        <v>1.42</v>
       </c>
       <c r="H97" t="s">
         <v>46</v>
@@ -3644,10 +3597,10 @@
         <v>17</v>
       </c>
       <c r="E98">
-        <v>2012</v>
+        <v>2011</v>
       </c>
       <c r="G98">
-        <v>1.62</v>
+        <v>1.54</v>
       </c>
       <c r="H98" t="s">
         <v>46</v>
@@ -3676,10 +3629,10 @@
         <v>17</v>
       </c>
       <c r="E99">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="G99">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="H99" t="s">
         <v>46</v>
@@ -3708,10 +3661,10 @@
         <v>17</v>
       </c>
       <c r="E100">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="G100">
-        <v>1.52</v>
+        <v>1.57</v>
       </c>
       <c r="H100" t="s">
         <v>46</v>
@@ -3740,10 +3693,10 @@
         <v>17</v>
       </c>
       <c r="E101">
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="G101">
-        <v>1.34</v>
+        <v>1.52</v>
       </c>
       <c r="H101" t="s">
         <v>46</v>
@@ -3772,10 +3725,10 @@
         <v>17</v>
       </c>
       <c r="E102">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="G102">
-        <v>1.25</v>
+        <v>1.34</v>
       </c>
       <c r="H102" t="s">
         <v>46</v>
@@ -3804,10 +3757,10 @@
         <v>17</v>
       </c>
       <c r="E103">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="G103">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="H103" t="s">
         <v>46</v>
@@ -3836,10 +3789,10 @@
         <v>17</v>
       </c>
       <c r="E104">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="G104">
-        <v>1.46</v>
+        <v>1.33</v>
       </c>
       <c r="H104" t="s">
         <v>46</v>
@@ -3868,10 +3821,10 @@
         <v>17</v>
       </c>
       <c r="E105">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="G105">
-        <v>1.42</v>
+        <v>1.46</v>
       </c>
       <c r="H105" t="s">
         <v>46</v>
@@ -3887,13 +3840,45 @@
       </c>
     </row>
     <row r="106" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="K106" s="2"/>
+      <c r="A106" t="s">
+        <v>15</v>
+      </c>
+      <c r="B106" t="s">
+        <v>43</v>
+      </c>
+      <c r="C106" t="s">
+        <v>28</v>
+      </c>
+      <c r="D106" t="s">
+        <v>17</v>
+      </c>
+      <c r="E106">
+        <v>2019</v>
+      </c>
+      <c r="G106">
+        <v>1.42</v>
+      </c>
+      <c r="H106" t="s">
+        <v>46</v>
+      </c>
+      <c r="J106" t="s">
+        <v>47</v>
+      </c>
+      <c r="K106" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="L106" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="107" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="K107" s="2"/>
     </row>
   </sheetData>
-  <autoFilter ref="A5:L304" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="A5:L305" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="K74" r:id="rId1" xr:uid="{349A6BA3-7B15-B646-937E-ADD6B67F0E06}"/>
+    <hyperlink ref="K75" r:id="rId1" xr:uid="{349A6BA3-7B15-B646-937E-ADD6B67F0E06}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
